--- a/data/pca/factorExposure/factorExposure_2019-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1036163490261457</v>
+        <v>-0.06774395406980462</v>
       </c>
       <c r="C2">
-        <v>-0.01795296361325626</v>
+        <v>0.03681533562603769</v>
       </c>
       <c r="D2">
-        <v>-0.0751718467833381</v>
+        <v>0.01866192218407103</v>
       </c>
       <c r="E2">
-        <v>0.01303635498689357</v>
+        <v>-0.03812557089443751</v>
       </c>
       <c r="F2">
-        <v>0.1327493698632025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1365010978504714</v>
+      </c>
+      <c r="G2">
+        <v>-0.05314995849923732</v>
+      </c>
+      <c r="H2">
+        <v>0.05770893414646833</v>
+      </c>
+      <c r="I2">
+        <v>-0.1134935774435182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.217895953222273</v>
+        <v>-0.1588440910254011</v>
       </c>
       <c r="C3">
-        <v>-0.1767955368839541</v>
+        <v>0.1131471704228186</v>
       </c>
       <c r="D3">
-        <v>-0.02631776664633288</v>
+        <v>-0.003349509237095861</v>
       </c>
       <c r="E3">
-        <v>-0.001490881900410279</v>
+        <v>0.0226633792258309</v>
       </c>
       <c r="F3">
-        <v>0.3394294627469445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.38463308344454</v>
+      </c>
+      <c r="G3">
+        <v>-0.2622369313705341</v>
+      </c>
+      <c r="H3">
+        <v>0.1082233553171837</v>
+      </c>
+      <c r="I3">
+        <v>-0.362937599111064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09494893009411315</v>
+        <v>-0.07206512330878174</v>
       </c>
       <c r="C4">
-        <v>-0.04837933414906877</v>
+        <v>0.05237882137211744</v>
       </c>
       <c r="D4">
-        <v>-0.04599981210841173</v>
+        <v>-0.01487162869695608</v>
       </c>
       <c r="E4">
-        <v>-0.03246976086925606</v>
+        <v>-0.03734711665896426</v>
       </c>
       <c r="F4">
-        <v>0.07218213380366711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.08076980412801109</v>
+      </c>
+      <c r="G4">
+        <v>-0.02130671776314864</v>
+      </c>
+      <c r="H4">
+        <v>0.04804040635407678</v>
+      </c>
+      <c r="I4">
+        <v>-0.05630688567702197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02521360284290534</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01024257920071365</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004039555812901473</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005248018066276538</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006570194324128098</v>
+      </c>
+      <c r="G6">
+        <v>0.01658971826935396</v>
+      </c>
+      <c r="H6">
+        <v>-0.01927017358561595</v>
+      </c>
+      <c r="I6">
+        <v>-0.001186433602295135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04333817966583371</v>
+        <v>-0.03436001415711985</v>
       </c>
       <c r="C7">
-        <v>-0.02431636990505194</v>
+        <v>0.02210794288521688</v>
       </c>
       <c r="D7">
-        <v>-0.04068276941727275</v>
+        <v>-0.03637699512122831</v>
       </c>
       <c r="E7">
-        <v>0.001680391880821099</v>
+        <v>-0.02634435307476002</v>
       </c>
       <c r="F7">
-        <v>0.06301461816699901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04989445192644677</v>
+      </c>
+      <c r="G7">
+        <v>-0.05255163517468141</v>
+      </c>
+      <c r="H7">
+        <v>-0.002256773808474014</v>
+      </c>
+      <c r="I7">
+        <v>-0.03979884557182978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05291547329111155</v>
+        <v>-0.02581762983387884</v>
       </c>
       <c r="C8">
-        <v>-0.05998595450745667</v>
+        <v>0.05330374064397125</v>
       </c>
       <c r="D8">
-        <v>-0.0188465930359213</v>
+        <v>-0.01112995982480139</v>
       </c>
       <c r="E8">
-        <v>-0.02570711650132767</v>
+        <v>-0.01544875075731705</v>
       </c>
       <c r="F8">
-        <v>0.06927314517878518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07308647035625244</v>
+      </c>
+      <c r="G8">
+        <v>-0.04210457317904372</v>
+      </c>
+      <c r="H8">
+        <v>0.03926285553456633</v>
+      </c>
+      <c r="I8">
+        <v>-0.06250344044254161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07872199270879357</v>
+        <v>-0.05966597540428813</v>
       </c>
       <c r="C9">
-        <v>-0.03669101297628484</v>
+        <v>0.04490088610273887</v>
       </c>
       <c r="D9">
-        <v>-0.04944538953780432</v>
+        <v>-0.01778688183636642</v>
       </c>
       <c r="E9">
-        <v>-0.04640436807897884</v>
+        <v>-0.0336151310693015</v>
       </c>
       <c r="F9">
-        <v>0.05546898061773951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07926730384630758</v>
+      </c>
+      <c r="G9">
+        <v>-0.02421465131175935</v>
+      </c>
+      <c r="H9">
+        <v>0.04327789535640734</v>
+      </c>
+      <c r="I9">
+        <v>-0.03203489062993826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02630320038765209</v>
+        <v>-0.03597748196397233</v>
       </c>
       <c r="C10">
-        <v>0.1644941623287449</v>
+        <v>-0.1666131290484175</v>
       </c>
       <c r="D10">
-        <v>0.02836130613015931</v>
+        <v>0.007721522191352494</v>
       </c>
       <c r="E10">
-        <v>0.03411407958993045</v>
+        <v>0.02436880934252816</v>
       </c>
       <c r="F10">
-        <v>0.07575771704127229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06861080951612199</v>
+      </c>
+      <c r="G10">
+        <v>-0.02353004065399139</v>
+      </c>
+      <c r="H10">
+        <v>0.03984946058705381</v>
+      </c>
+      <c r="I10">
+        <v>-0.03862657710760596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05736643611133874</v>
+        <v>-0.04776483129101645</v>
       </c>
       <c r="C11">
-        <v>-0.02057159881538914</v>
+        <v>0.03332251831730349</v>
       </c>
       <c r="D11">
-        <v>-0.01042948501620225</v>
+        <v>0.006226606698405953</v>
       </c>
       <c r="E11">
-        <v>0.006380598385861457</v>
+        <v>-0.007377479854237459</v>
       </c>
       <c r="F11">
-        <v>0.0436453057921463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03813865266130344</v>
+      </c>
+      <c r="G11">
+        <v>-0.0009080982732739422</v>
+      </c>
+      <c r="H11">
+        <v>0.01271822388483357</v>
+      </c>
+      <c r="I11">
+        <v>-0.03019198448858648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04638298511525838</v>
+        <v>-0.04357291917421671</v>
       </c>
       <c r="C12">
-        <v>-0.02255715748163197</v>
+        <v>0.03099309108532366</v>
       </c>
       <c r="D12">
-        <v>-0.006515630056468007</v>
+        <v>-0.00543783058228752</v>
       </c>
       <c r="E12">
-        <v>-0.01081220009720583</v>
+        <v>-0.007937833220526396</v>
       </c>
       <c r="F12">
-        <v>0.02782929437868488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0136376512915501</v>
+      </c>
+      <c r="G12">
+        <v>-0.003287438432604559</v>
+      </c>
+      <c r="H12">
+        <v>0.005419783704004605</v>
+      </c>
+      <c r="I12">
+        <v>-0.01781433231561729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05984979455720811</v>
+        <v>-0.04216645179169311</v>
       </c>
       <c r="C13">
-        <v>-0.03102793374735989</v>
+        <v>0.02986287935708281</v>
       </c>
       <c r="D13">
-        <v>-0.02112026447304825</v>
+        <v>0.01505072838340927</v>
       </c>
       <c r="E13">
-        <v>0.03049141300754673</v>
+        <v>-0.007404555563283456</v>
       </c>
       <c r="F13">
-        <v>0.1089316353516677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1041730459607415</v>
+      </c>
+      <c r="G13">
+        <v>-0.03221316653067735</v>
+      </c>
+      <c r="H13">
+        <v>0.03283911585972511</v>
+      </c>
+      <c r="I13">
+        <v>-0.06412564466136592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03473752351501319</v>
+        <v>-0.02671101916708078</v>
       </c>
       <c r="C14">
-        <v>-0.02778024959585421</v>
+        <v>0.02512880703466334</v>
       </c>
       <c r="D14">
-        <v>-0.03483803668924581</v>
+        <v>-0.005364414196270663</v>
       </c>
       <c r="E14">
-        <v>-0.0050547092251865</v>
+        <v>-0.02768493638887563</v>
       </c>
       <c r="F14">
-        <v>0.02095832568511271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03608231991834828</v>
+      </c>
+      <c r="G14">
+        <v>-0.05472061444151116</v>
+      </c>
+      <c r="H14">
+        <v>0.01694513573322808</v>
+      </c>
+      <c r="I14">
+        <v>-0.01715646165692365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04959980366177095</v>
+        <v>-0.04213181466523123</v>
       </c>
       <c r="C16">
-        <v>-0.02575406740445658</v>
+        <v>0.03538300298638788</v>
       </c>
       <c r="D16">
-        <v>-0.004388468526196873</v>
+        <v>0.0006312906982387167</v>
       </c>
       <c r="E16">
-        <v>0.001825609320525039</v>
+        <v>-0.004762592963036482</v>
       </c>
       <c r="F16">
-        <v>0.0338592585131008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03410927884209076</v>
+      </c>
+      <c r="G16">
+        <v>-0.005429066306839811</v>
+      </c>
+      <c r="H16">
+        <v>0.005423252036150172</v>
+      </c>
+      <c r="I16">
+        <v>-0.03135110962375137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06691968131122952</v>
+        <v>-0.05337382626319086</v>
       </c>
       <c r="C19">
-        <v>-0.05201530647397849</v>
+        <v>0.04831488992703647</v>
       </c>
       <c r="D19">
-        <v>-0.01742074216942349</v>
+        <v>0.003769031568695538</v>
       </c>
       <c r="E19">
-        <v>0.002294030819641634</v>
+        <v>-0.01645483255279269</v>
       </c>
       <c r="F19">
-        <v>0.07886663547547232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09091476153184494</v>
+      </c>
+      <c r="G19">
+        <v>-0.05552325337605228</v>
+      </c>
+      <c r="H19">
+        <v>0.02644504878563953</v>
+      </c>
+      <c r="I19">
+        <v>-0.06890587672835538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03208074767892719</v>
+        <v>-0.01930565153076351</v>
       </c>
       <c r="C20">
-        <v>-0.03704486210495449</v>
+        <v>0.03024253626153627</v>
       </c>
       <c r="D20">
-        <v>-0.03910787698727216</v>
+        <v>-0.005040683963701458</v>
       </c>
       <c r="E20">
-        <v>-0.01999924402077892</v>
+        <v>-0.02022966758362596</v>
       </c>
       <c r="F20">
-        <v>0.06385946731233094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0636168465527979</v>
+      </c>
+      <c r="G20">
+        <v>-0.05869123874114064</v>
+      </c>
+      <c r="H20">
+        <v>0.01517904266443568</v>
+      </c>
+      <c r="I20">
+        <v>-0.07527689380572482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03652944656805333</v>
+        <v>-0.03402894395408584</v>
       </c>
       <c r="C21">
-        <v>-0.04407263168280916</v>
+        <v>0.03265057515869862</v>
       </c>
       <c r="D21">
-        <v>-0.0162650718547195</v>
+        <v>-0.01148120226782691</v>
       </c>
       <c r="E21">
-        <v>0.004847706490838853</v>
+        <v>-0.004946727262514375</v>
       </c>
       <c r="F21">
-        <v>0.1013350219529496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08025979882974904</v>
+      </c>
+      <c r="G21">
+        <v>-0.01371435236432174</v>
+      </c>
+      <c r="H21">
+        <v>0.04819020882279781</v>
+      </c>
+      <c r="I21">
+        <v>-0.003852042724324127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04916160119353174</v>
+        <v>-0.04070671727226091</v>
       </c>
       <c r="C24">
-        <v>-0.02378856109503354</v>
+        <v>0.03083733186954172</v>
       </c>
       <c r="D24">
-        <v>-0.01143680995597675</v>
+        <v>0.0003903938663574282</v>
       </c>
       <c r="E24">
-        <v>-0.002556290231693348</v>
+        <v>-0.007288852623847662</v>
       </c>
       <c r="F24">
-        <v>0.0422790481689775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03643658117755447</v>
+      </c>
+      <c r="G24">
+        <v>-0.001115822151059246</v>
+      </c>
+      <c r="H24">
+        <v>0.008365707683880503</v>
+      </c>
+      <c r="I24">
+        <v>-0.03210805117774615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05005347510684858</v>
+        <v>-0.04694414780564121</v>
       </c>
       <c r="C25">
-        <v>-0.0186892481151619</v>
+        <v>0.02747956542790173</v>
       </c>
       <c r="D25">
-        <v>-0.01099357944555224</v>
+        <v>0.0008681003828727308</v>
       </c>
       <c r="E25">
-        <v>-0.002617621305492547</v>
+        <v>-0.007106980668175401</v>
       </c>
       <c r="F25">
-        <v>0.04053570236040322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04299953986937279</v>
+      </c>
+      <c r="G25">
+        <v>0.000968290032379632</v>
+      </c>
+      <c r="H25">
+        <v>0.01226441509968659</v>
+      </c>
+      <c r="I25">
+        <v>-0.02254870648514429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02734112215398853</v>
+        <v>-0.01597827149809108</v>
       </c>
       <c r="C26">
-        <v>-0.03676699800125346</v>
+        <v>0.03026561875338435</v>
       </c>
       <c r="D26">
-        <v>-0.01922271967809678</v>
+        <v>0.004615447765411179</v>
       </c>
       <c r="E26">
-        <v>0.01872984098608998</v>
+        <v>-0.0007128099854240671</v>
       </c>
       <c r="F26">
-        <v>0.03170181463578396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04234147972725667</v>
+      </c>
+      <c r="G26">
+        <v>-0.03084582070851515</v>
+      </c>
+      <c r="H26">
+        <v>0.01434452059695324</v>
+      </c>
+      <c r="I26">
+        <v>-0.02994253675140502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1204453699756139</v>
+        <v>-0.07123629508040756</v>
       </c>
       <c r="C27">
-        <v>-0.02859494951176868</v>
+        <v>0.02760735121839887</v>
       </c>
       <c r="D27">
-        <v>-0.03604467400793356</v>
+        <v>-0.003511327377637543</v>
       </c>
       <c r="E27">
-        <v>-0.02449443686019318</v>
+        <v>-0.02942363269450978</v>
       </c>
       <c r="F27">
-        <v>0.07784153923604939</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06627577338580987</v>
+      </c>
+      <c r="G27">
+        <v>-0.01687658727195347</v>
+      </c>
+      <c r="H27">
+        <v>0.02548120836909333</v>
+      </c>
+      <c r="I27">
+        <v>-0.03709774569517283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02787603985295469</v>
+        <v>-0.05049990421581409</v>
       </c>
       <c r="C28">
-        <v>0.2474699436007516</v>
+        <v>-0.251994827579079</v>
       </c>
       <c r="D28">
-        <v>0.05630771738669064</v>
+        <v>0.00260760122336039</v>
       </c>
       <c r="E28">
-        <v>0.0313239712787989</v>
+        <v>0.03673153239859708</v>
       </c>
       <c r="F28">
-        <v>0.05379962578499214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05790637597495767</v>
+      </c>
+      <c r="G28">
+        <v>-0.03760324400254163</v>
+      </c>
+      <c r="H28">
+        <v>0.044325417080314</v>
+      </c>
+      <c r="I28">
+        <v>-0.06357809373403753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03126368318965819</v>
+        <v>-0.02404431408943424</v>
       </c>
       <c r="C29">
-        <v>-0.02607629028520781</v>
+        <v>0.02298242343866762</v>
       </c>
       <c r="D29">
-        <v>-0.03192200144313701</v>
+        <v>-0.008760502254977678</v>
       </c>
       <c r="E29">
-        <v>-0.01676633851392054</v>
+        <v>-0.02916016681515681</v>
       </c>
       <c r="F29">
-        <v>0.02052159228554261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03289002001845916</v>
+      </c>
+      <c r="G29">
+        <v>-0.0539435675820413</v>
+      </c>
+      <c r="H29">
+        <v>0.02054143109189012</v>
+      </c>
+      <c r="I29">
+        <v>-0.001726879181066403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1132121010669602</v>
+        <v>-0.08874572580520172</v>
       </c>
       <c r="C30">
-        <v>-0.03026589367185876</v>
+        <v>0.05356844708522158</v>
       </c>
       <c r="D30">
-        <v>-0.04782551707756341</v>
+        <v>0.03850935444745294</v>
       </c>
       <c r="E30">
-        <v>0.004911505498591258</v>
+        <v>-0.03124073571832088</v>
       </c>
       <c r="F30">
-        <v>0.1047596397733879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1066477543470787</v>
+      </c>
+      <c r="G30">
+        <v>-0.01166376199118621</v>
+      </c>
+      <c r="H30">
+        <v>-0.00769077864029117</v>
+      </c>
+      <c r="I30">
+        <v>-0.02190911578687865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06974174523126102</v>
+        <v>-0.06273453515576824</v>
       </c>
       <c r="C31">
-        <v>-0.0185563427318233</v>
+        <v>0.02369463963012447</v>
       </c>
       <c r="D31">
-        <v>-0.02762551458276363</v>
+        <v>0.01086502324730955</v>
       </c>
       <c r="E31">
-        <v>0.03400256761884663</v>
+        <v>-0.02237613842807644</v>
       </c>
       <c r="F31">
-        <v>-0.0362330159549613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004496071909963993</v>
+      </c>
+      <c r="G31">
+        <v>-0.04212851589675733</v>
+      </c>
+      <c r="H31">
+        <v>0.03873707036910785</v>
+      </c>
+      <c r="I31">
+        <v>-0.01089085227437022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06890320102465661</v>
+        <v>-0.04143805641638135</v>
       </c>
       <c r="C32">
-        <v>-0.045841334771978</v>
+        <v>0.04814366509714936</v>
       </c>
       <c r="D32">
-        <v>-0.02960810972064093</v>
+        <v>-0.0160911275839913</v>
       </c>
       <c r="E32">
-        <v>-0.01524781235088028</v>
+        <v>-0.03153974496271764</v>
       </c>
       <c r="F32">
-        <v>0.09448219761727472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08414526932957321</v>
+      </c>
+      <c r="G32">
+        <v>-0.03236845417332719</v>
+      </c>
+      <c r="H32">
+        <v>0.02628381217479979</v>
+      </c>
+      <c r="I32">
+        <v>-0.05519848041000597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06856542857251731</v>
+        <v>-0.05469356056983012</v>
       </c>
       <c r="C33">
-        <v>-0.06470363140236492</v>
+        <v>0.05649705564328708</v>
       </c>
       <c r="D33">
-        <v>-0.03139338430661599</v>
+        <v>0.01970259099086148</v>
       </c>
       <c r="E33">
-        <v>0.0122110560840741</v>
+        <v>-0.006480763225260096</v>
       </c>
       <c r="F33">
-        <v>0.06590559754895252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.073768236112667</v>
+      </c>
+      <c r="G33">
+        <v>-0.04006307503183443</v>
+      </c>
+      <c r="H33">
+        <v>0.03876099987022881</v>
+      </c>
+      <c r="I33">
+        <v>-0.03635491298051428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04829303740277578</v>
+        <v>-0.04195324262029444</v>
       </c>
       <c r="C34">
-        <v>-0.02340167390823078</v>
+        <v>0.03555249975581105</v>
       </c>
       <c r="D34">
-        <v>-0.01578850728072257</v>
+        <v>-0.00438056492212262</v>
       </c>
       <c r="E34">
-        <v>-0.00375240338011392</v>
+        <v>-0.01512779116476995</v>
       </c>
       <c r="F34">
-        <v>0.02881842462330051</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03347288337953973</v>
+      </c>
+      <c r="G34">
+        <v>-0.005815956759561672</v>
+      </c>
+      <c r="H34">
+        <v>0.008624223235775254</v>
+      </c>
+      <c r="I34">
+        <v>-0.02575162822072465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01853331040246931</v>
+        <v>-0.01590985877229262</v>
       </c>
       <c r="C36">
-        <v>-0.004302855220785865</v>
+        <v>0.005900995156102843</v>
       </c>
       <c r="D36">
-        <v>-0.01215459972306949</v>
+        <v>-0.003710865365270994</v>
       </c>
       <c r="E36">
-        <v>-0.004584168257054087</v>
+        <v>-0.009671847847147762</v>
       </c>
       <c r="F36">
-        <v>0.01704259314924561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02504964549678459</v>
+      </c>
+      <c r="G36">
+        <v>-0.03560334863138044</v>
+      </c>
+      <c r="H36">
+        <v>0.02288495100043078</v>
+      </c>
+      <c r="I36">
+        <v>0.009244866722013806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04443989276770316</v>
+        <v>-0.03677722371396705</v>
       </c>
       <c r="C38">
-        <v>-0.01418222875084307</v>
+        <v>0.01669988571193413</v>
       </c>
       <c r="D38">
-        <v>-0.0127537636172557</v>
+        <v>-0.003347729239910297</v>
       </c>
       <c r="E38">
-        <v>-0.01738325695867412</v>
+        <v>-0.008498686521885315</v>
       </c>
       <c r="F38">
-        <v>0.02227366198972937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04922175324386151</v>
+      </c>
+      <c r="G38">
+        <v>-0.02095627305963975</v>
+      </c>
+      <c r="H38">
+        <v>0.02655275958561257</v>
+      </c>
+      <c r="I38">
+        <v>0.01199298218934477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06999699835072229</v>
+        <v>-0.05273361243576962</v>
       </c>
       <c r="C39">
-        <v>-0.02448958465947493</v>
+        <v>0.04920227601170748</v>
       </c>
       <c r="D39">
-        <v>-0.01743160311412284</v>
+        <v>0.005643455239378342</v>
       </c>
       <c r="E39">
-        <v>0.01395457873470655</v>
+        <v>-0.01684016408722303</v>
       </c>
       <c r="F39">
-        <v>0.03731493590423973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05448562171630065</v>
+      </c>
+      <c r="G39">
+        <v>0.003666231717935476</v>
+      </c>
+      <c r="H39">
+        <v>0.01953089546552398</v>
+      </c>
+      <c r="I39">
+        <v>-0.008775953615508947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0748103381682753</v>
+        <v>-0.05627008845337799</v>
       </c>
       <c r="C40">
-        <v>-0.03221535520053807</v>
+        <v>0.04598160123308782</v>
       </c>
       <c r="D40">
-        <v>-0.05590003031848184</v>
+        <v>0.02150632494503747</v>
       </c>
       <c r="E40">
-        <v>0.03340998349904797</v>
+        <v>-0.02258865480431505</v>
       </c>
       <c r="F40">
-        <v>0.109928871408768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09743364794400812</v>
+      </c>
+      <c r="G40">
+        <v>-0.02839205162843069</v>
+      </c>
+      <c r="H40">
+        <v>0.03333756340475725</v>
+      </c>
+      <c r="I40">
+        <v>-0.1137127718112876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003116273480867014</v>
+        <v>-0.004635022921405097</v>
       </c>
       <c r="C41">
-        <v>-0.02660823375694029</v>
+        <v>0.01169141830973891</v>
       </c>
       <c r="D41">
-        <v>-0.02444448695217098</v>
+        <v>0.0005836302977603095</v>
       </c>
       <c r="E41">
-        <v>-0.006634604097373771</v>
+        <v>-0.01082318768505742</v>
       </c>
       <c r="F41">
-        <v>-0.007242023216287954</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01106995015116707</v>
+      </c>
+      <c r="G41">
+        <v>-0.0440074004783533</v>
+      </c>
+      <c r="H41">
+        <v>0.04091371844987748</v>
+      </c>
+      <c r="I41">
+        <v>-0.009887531196899281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1861171531014347</v>
+        <v>-0.2058010223985738</v>
       </c>
       <c r="C42">
-        <v>-0.3365088674071005</v>
+        <v>0.1999084677361602</v>
       </c>
       <c r="D42">
-        <v>0.8431994659264892</v>
+        <v>0.05099881731112915</v>
       </c>
       <c r="E42">
-        <v>0.290147303838237</v>
+        <v>0.9234560840398741</v>
       </c>
       <c r="F42">
-        <v>-0.05933494026949086</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1677004946072318</v>
+      </c>
+      <c r="G42">
+        <v>0.01157601822715407</v>
+      </c>
+      <c r="H42">
+        <v>0.00100568031849698</v>
+      </c>
+      <c r="I42">
+        <v>-0.06349801326747653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006631830984975555</v>
+        <v>-0.008440793849616155</v>
       </c>
       <c r="C43">
-        <v>-0.02896752863185161</v>
+        <v>0.01345398787089789</v>
       </c>
       <c r="D43">
-        <v>-0.02625611250879474</v>
+        <v>0.003250578835425942</v>
       </c>
       <c r="E43">
-        <v>-0.002159093894401561</v>
+        <v>-0.009664390056640982</v>
       </c>
       <c r="F43">
-        <v>0.02257606231319558</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02481940506046299</v>
+      </c>
+      <c r="G43">
+        <v>-0.03225138889821485</v>
+      </c>
+      <c r="H43">
+        <v>0.02421206413593606</v>
+      </c>
+      <c r="I43">
+        <v>-0.01911574928533624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04518991224873422</v>
+        <v>-0.02945006596283384</v>
       </c>
       <c r="C44">
-        <v>-0.05748250860925163</v>
+        <v>0.04475255204675605</v>
       </c>
       <c r="D44">
-        <v>-0.03426641889998887</v>
+        <v>-0.001553347767751901</v>
       </c>
       <c r="E44">
-        <v>0.005307991644704627</v>
+        <v>-0.01226262563529073</v>
       </c>
       <c r="F44">
-        <v>0.1119398303729883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1182821783081513</v>
+      </c>
+      <c r="G44">
+        <v>-0.08371414538523855</v>
+      </c>
+      <c r="H44">
+        <v>0.05807032336718068</v>
+      </c>
+      <c r="I44">
+        <v>-0.05599783140701547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03286356799849072</v>
+        <v>-0.0263916974376549</v>
       </c>
       <c r="C46">
-        <v>-0.02918307761097513</v>
+        <v>0.03800352908620726</v>
       </c>
       <c r="D46">
-        <v>-0.03400027539830122</v>
+        <v>0.004246142276031968</v>
       </c>
       <c r="E46">
-        <v>-0.0006351322422375598</v>
+        <v>-0.02946220112936541</v>
       </c>
       <c r="F46">
-        <v>0.01503669255673615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04324732691078807</v>
+      </c>
+      <c r="G46">
+        <v>-0.05924920442229113</v>
+      </c>
+      <c r="H46">
+        <v>0.02101535365575058</v>
+      </c>
+      <c r="I46">
+        <v>-0.007140257095310118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09441497506289837</v>
+        <v>-0.0875520619729426</v>
       </c>
       <c r="C47">
-        <v>-0.0165705839888657</v>
+        <v>0.02272912688507049</v>
       </c>
       <c r="D47">
-        <v>-0.0271093571134168</v>
+        <v>0.005055082917416525</v>
       </c>
       <c r="E47">
-        <v>-0.002611473753580992</v>
+        <v>-0.0265388200107933</v>
       </c>
       <c r="F47">
-        <v>-0.02890473747989918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01756361593328274</v>
+      </c>
+      <c r="G47">
+        <v>-0.0596855303030903</v>
+      </c>
+      <c r="H47">
+        <v>0.03188808237464958</v>
+      </c>
+      <c r="I47">
+        <v>-0.03432983490078436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02090841142363774</v>
+        <v>-0.02079661255476197</v>
       </c>
       <c r="C48">
-        <v>-0.02505551304231089</v>
+        <v>0.01838501524479785</v>
       </c>
       <c r="D48">
-        <v>-0.0215624375582397</v>
+        <v>-0.0006018119049990538</v>
       </c>
       <c r="E48">
-        <v>-0.000587126967037978</v>
+        <v>-0.01350971325559368</v>
       </c>
       <c r="F48">
-        <v>0.02138086564967102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02632066186242441</v>
+      </c>
+      <c r="G48">
+        <v>-0.02479635954334192</v>
+      </c>
+      <c r="H48">
+        <v>0.01768912954716843</v>
+      </c>
+      <c r="I48">
+        <v>-0.01008945399846992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09336204630634247</v>
+        <v>-0.08921927986682511</v>
       </c>
       <c r="C50">
-        <v>-0.03622759507834135</v>
+        <v>0.04308731590823299</v>
       </c>
       <c r="D50">
-        <v>-0.02646923695447892</v>
+        <v>-0.009092182387195747</v>
       </c>
       <c r="E50">
-        <v>0.007570016182576803</v>
+        <v>-0.0221949444209473</v>
       </c>
       <c r="F50">
-        <v>-0.03108291044616571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01138731960064861</v>
+      </c>
+      <c r="G50">
+        <v>-0.03881593634086122</v>
+      </c>
+      <c r="H50">
+        <v>-0.007184020980270955</v>
+      </c>
+      <c r="I50">
+        <v>0.003991545661504061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05769815605565014</v>
+        <v>-0.04000837614613398</v>
       </c>
       <c r="C51">
-        <v>0.006067218875684893</v>
+        <v>-0.002483190444781953</v>
       </c>
       <c r="D51">
-        <v>-0.0268782019882905</v>
+        <v>0.01030708442217811</v>
       </c>
       <c r="E51">
-        <v>0.03023802352506368</v>
+        <v>-0.01139267186758844</v>
       </c>
       <c r="F51">
-        <v>0.06544745003176532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09199942975322964</v>
+      </c>
+      <c r="G51">
+        <v>-0.06285576080265659</v>
+      </c>
+      <c r="H51">
+        <v>0.05497919040625913</v>
+      </c>
+      <c r="I51">
+        <v>-0.03507512495366324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1341986244775128</v>
+        <v>-0.1248085845916169</v>
       </c>
       <c r="C53">
-        <v>-0.02129268715037857</v>
+        <v>0.04058800099676511</v>
       </c>
       <c r="D53">
-        <v>-0.05481879099512114</v>
+        <v>0.006563019168193416</v>
       </c>
       <c r="E53">
-        <v>0.004900611371860382</v>
+        <v>-0.05076149083529342</v>
       </c>
       <c r="F53">
-        <v>-0.06235695181492053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04738941636180992</v>
+      </c>
+      <c r="G53">
+        <v>-0.007562018630765503</v>
+      </c>
+      <c r="H53">
+        <v>0.02864645581276187</v>
+      </c>
+      <c r="I53">
+        <v>-0.03945901827619755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02748767235452451</v>
+        <v>-0.02603168199036193</v>
       </c>
       <c r="C54">
-        <v>-0.009709631836631106</v>
+        <v>0.008743775373272866</v>
       </c>
       <c r="D54">
-        <v>-0.03246333019573314</v>
+        <v>-0.004375358498713854</v>
       </c>
       <c r="E54">
-        <v>-0.009325294037258193</v>
+        <v>-0.03070396593626531</v>
       </c>
       <c r="F54">
-        <v>0.02410164531640244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03164202164214319</v>
+      </c>
+      <c r="G54">
+        <v>-0.05400159126692206</v>
+      </c>
+      <c r="H54">
+        <v>0.03287869131750236</v>
+      </c>
+      <c r="I54">
+        <v>-0.001392920554291587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1077987075703403</v>
+        <v>-0.09857303159303245</v>
       </c>
       <c r="C55">
-        <v>-0.0008793495783827467</v>
+        <v>0.03462408739421572</v>
       </c>
       <c r="D55">
-        <v>-0.02949699173830742</v>
+        <v>-0.01146385446619707</v>
       </c>
       <c r="E55">
-        <v>-0.04156731491572207</v>
+        <v>-0.03484973260067946</v>
       </c>
       <c r="F55">
-        <v>-0.02603779922300965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03652723021995199</v>
+      </c>
+      <c r="G55">
+        <v>-0.02406467361519385</v>
+      </c>
+      <c r="H55">
+        <v>-0.008891475947543068</v>
+      </c>
+      <c r="I55">
+        <v>-0.02071028952110466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1687375862346842</v>
+        <v>-0.1647111428715789</v>
       </c>
       <c r="C56">
-        <v>0.02813664466738365</v>
+        <v>0.02617208277558982</v>
       </c>
       <c r="D56">
-        <v>-0.08439720010018778</v>
+        <v>0.003609461237785931</v>
       </c>
       <c r="E56">
-        <v>-0.02993854550510503</v>
+        <v>-0.0846884904370977</v>
       </c>
       <c r="F56">
-        <v>-0.1030569985104199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09147852009258946</v>
+      </c>
+      <c r="G56">
+        <v>0.0329446727153179</v>
+      </c>
+      <c r="H56">
+        <v>-0.01336254938894672</v>
+      </c>
+      <c r="I56">
+        <v>-0.03905303957507972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08115687346890943</v>
+        <v>-0.0638339439913803</v>
       </c>
       <c r="C57">
-        <v>-0.02793384008942512</v>
+        <v>0.03147380886978515</v>
       </c>
       <c r="D57">
-        <v>-0.03652566867516149</v>
+        <v>0.02133998558392775</v>
       </c>
       <c r="E57">
-        <v>0.02880248348469161</v>
+        <v>-0.005490124939074325</v>
       </c>
       <c r="F57">
-        <v>0.05119670049316247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0713000296955373</v>
+      </c>
+      <c r="G57">
+        <v>-0.01609850301042079</v>
+      </c>
+      <c r="H57">
+        <v>0.01577742826957497</v>
+      </c>
+      <c r="I57">
+        <v>-0.02466132430793733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2055551883280169</v>
+        <v>-0.2089789019415748</v>
       </c>
       <c r="C58">
-        <v>-0.07041443124985368</v>
+        <v>0.1122364274993868</v>
       </c>
       <c r="D58">
-        <v>-0.03118716569127813</v>
+        <v>0.09502023387280364</v>
       </c>
       <c r="E58">
-        <v>0.05298573487002524</v>
+        <v>0.03893876804221082</v>
       </c>
       <c r="F58">
-        <v>0.1263256278308826</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2747956061042944</v>
+      </c>
+      <c r="G58">
+        <v>-0.4005701833804249</v>
+      </c>
+      <c r="H58">
+        <v>-0.3163456690007855</v>
+      </c>
+      <c r="I58">
+        <v>0.7013615146765099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02685067988329086</v>
+        <v>-0.0509545614553308</v>
       </c>
       <c r="C59">
-        <v>0.1978779592607236</v>
+        <v>-0.2068383650741519</v>
       </c>
       <c r="D59">
-        <v>0.02342784359295101</v>
+        <v>0.01798725069845365</v>
       </c>
       <c r="E59">
-        <v>0.02299003271122363</v>
+        <v>0.00704303858927567</v>
       </c>
       <c r="F59">
-        <v>0.05609154678005237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0712594129819506</v>
+      </c>
+      <c r="G59">
+        <v>0.003859679489472597</v>
+      </c>
+      <c r="H59">
+        <v>0.01397130364067023</v>
+      </c>
+      <c r="I59">
+        <v>-0.01023395736455025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1823593416934094</v>
+        <v>-0.1930008631999236</v>
       </c>
       <c r="C60">
-        <v>0.06720926335660102</v>
+        <v>-0.05113841954389953</v>
       </c>
       <c r="D60">
-        <v>-0.03357975234598417</v>
+        <v>0.04889140375913839</v>
       </c>
       <c r="E60">
-        <v>0.06889537567101883</v>
+        <v>-0.01082196280997539</v>
       </c>
       <c r="F60">
-        <v>0.1893159905694745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2003702708737908</v>
+      </c>
+      <c r="G60">
+        <v>0.3382297000214156</v>
+      </c>
+      <c r="H60">
+        <v>-0.01366348864465304</v>
+      </c>
+      <c r="I60">
+        <v>0.02385160090017418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04159010270133021</v>
+        <v>-0.03921913086425132</v>
       </c>
       <c r="C61">
-        <v>-0.01563266046255063</v>
+        <v>0.03409321456418321</v>
       </c>
       <c r="D61">
-        <v>-0.01074907808403063</v>
+        <v>-0.001529101689424337</v>
       </c>
       <c r="E61">
-        <v>-0.005923427402966744</v>
+        <v>-0.0106979183485976</v>
       </c>
       <c r="F61">
-        <v>0.03349024727883533</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03600650882849369</v>
+      </c>
+      <c r="G61">
+        <v>0.008291599806533941</v>
+      </c>
+      <c r="H61">
+        <v>0.009731872644206581</v>
+      </c>
+      <c r="I61">
+        <v>0.001085008307472268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04112703853497797</v>
+        <v>-0.03034050057361233</v>
       </c>
       <c r="C63">
-        <v>-0.01555922750543666</v>
+        <v>0.0253189725991293</v>
       </c>
       <c r="D63">
-        <v>-0.02926247044584507</v>
+        <v>0.001042671381474203</v>
       </c>
       <c r="E63">
-        <v>0.001517942944995902</v>
+        <v>-0.0177986021905683</v>
       </c>
       <c r="F63">
-        <v>0.03417712127592923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02928700291481267</v>
+      </c>
+      <c r="G63">
+        <v>-0.04914136371137316</v>
+      </c>
+      <c r="H63">
+        <v>0.005712036625393986</v>
+      </c>
+      <c r="I63">
+        <v>-0.0322462943173125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06055696576097156</v>
+        <v>-0.05625081017553681</v>
       </c>
       <c r="C64">
-        <v>-0.0331931832987291</v>
+        <v>0.03562066681287226</v>
       </c>
       <c r="D64">
-        <v>-0.02159781092345663</v>
+        <v>-0.01001835729177128</v>
       </c>
       <c r="E64">
-        <v>-0.03020167830797299</v>
+        <v>-0.0186988427186301</v>
       </c>
       <c r="F64">
-        <v>0.03139191941334551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03824144784184567</v>
+      </c>
+      <c r="G64">
+        <v>-0.02572809934563605</v>
+      </c>
+      <c r="H64">
+        <v>0.0594750864380094</v>
+      </c>
+      <c r="I64">
+        <v>-0.03829520230990076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02782179086532769</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01027937693153918</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.00442948928494347</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005864953617351629</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003166838537327948</v>
+      </c>
+      <c r="G65">
+        <v>0.02140184357617654</v>
+      </c>
+      <c r="H65">
+        <v>-0.01830714063729805</v>
+      </c>
+      <c r="I65">
+        <v>-0.001692558134327372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07774525099188521</v>
+        <v>-0.06732211482117229</v>
       </c>
       <c r="C66">
-        <v>-0.04056795148024075</v>
+        <v>0.0596577372537512</v>
       </c>
       <c r="D66">
-        <v>-0.04369624796570976</v>
+        <v>0.01292424669817595</v>
       </c>
       <c r="E66">
-        <v>-0.00224669050124306</v>
+        <v>-0.04270264835025416</v>
       </c>
       <c r="F66">
-        <v>0.07379882761386533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06740952005311875</v>
+      </c>
+      <c r="G66">
+        <v>0.01088024753046372</v>
+      </c>
+      <c r="H66">
+        <v>0.006958236994848166</v>
+      </c>
+      <c r="I66">
+        <v>-0.04801288698052255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05406796085642918</v>
+        <v>-0.04911990361724408</v>
       </c>
       <c r="C67">
-        <v>0.01085616776990345</v>
+        <v>-0.001647222112872866</v>
       </c>
       <c r="D67">
-        <v>-0.003480914541316045</v>
+        <v>0.001870381996370063</v>
       </c>
       <c r="E67">
-        <v>-0.005232773925587773</v>
+        <v>-0.007824455098220797</v>
       </c>
       <c r="F67">
-        <v>0.01908647858456481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03766644015987525</v>
+      </c>
+      <c r="G67">
+        <v>-0.002587862484450766</v>
+      </c>
+      <c r="H67">
+        <v>0.03671438840858843</v>
+      </c>
+      <c r="I67">
+        <v>0.02480034642259153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04729072858910093</v>
+        <v>-0.06082546107047693</v>
       </c>
       <c r="C68">
-        <v>0.2417199194889351</v>
+        <v>-0.2406153414945268</v>
       </c>
       <c r="D68">
-        <v>0.05278093727811348</v>
+        <v>0.01702250711562193</v>
       </c>
       <c r="E68">
-        <v>0.03249501550100063</v>
+        <v>0.02351498193695686</v>
       </c>
       <c r="F68">
-        <v>0.05301057277581544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05088065950443491</v>
+      </c>
+      <c r="G68">
+        <v>-0.02037318206180968</v>
+      </c>
+      <c r="H68">
+        <v>-0.003609561270211727</v>
+      </c>
+      <c r="I68">
+        <v>-0.02651043727229964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07780889823426913</v>
+        <v>-0.07152958735558605</v>
       </c>
       <c r="C69">
-        <v>-0.005501875558246562</v>
+        <v>0.02133126664089988</v>
       </c>
       <c r="D69">
-        <v>-0.02988799602067145</v>
+        <v>0.00686962577761143</v>
       </c>
       <c r="E69">
-        <v>-0.001191200515472813</v>
+        <v>-0.03085674203635041</v>
       </c>
       <c r="F69">
-        <v>-0.01610635861031611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003891144786349533</v>
+      </c>
+      <c r="G69">
+        <v>-0.03855737146724576</v>
+      </c>
+      <c r="H69">
+        <v>0.02351115457022067</v>
+      </c>
+      <c r="I69">
+        <v>-0.01708413125076346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04231902529721299</v>
+        <v>-0.05712352765083683</v>
       </c>
       <c r="C71">
-        <v>0.2956387207916146</v>
+        <v>-0.2655812331246954</v>
       </c>
       <c r="D71">
-        <v>0.0553190094012597</v>
+        <v>0.01929030177460242</v>
       </c>
       <c r="E71">
-        <v>0.06491761276236566</v>
+        <v>0.03878512714270457</v>
       </c>
       <c r="F71">
-        <v>0.08505414862760606</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07042077800800926</v>
+      </c>
+      <c r="G71">
+        <v>-0.02808091638224391</v>
+      </c>
+      <c r="H71">
+        <v>0.02069995551307637</v>
+      </c>
+      <c r="I71">
+        <v>-0.02880407207321435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1326307834442011</v>
+        <v>-0.1277442626528734</v>
       </c>
       <c r="C72">
-        <v>0.01500817564043194</v>
+        <v>0.03942468779146027</v>
       </c>
       <c r="D72">
-        <v>-0.05675064321588291</v>
+        <v>0.009958940967709985</v>
       </c>
       <c r="E72">
-        <v>-0.001317022713078317</v>
+        <v>-0.07063910501943257</v>
       </c>
       <c r="F72">
-        <v>0.07507258265533676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08653627423661034</v>
+      </c>
+      <c r="G72">
+        <v>0.04903349703699302</v>
+      </c>
+      <c r="H72">
+        <v>-0.04711686370951259</v>
+      </c>
+      <c r="I72">
+        <v>0.111961491302616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2747130317830089</v>
+        <v>-0.270900660766259</v>
       </c>
       <c r="C73">
-        <v>0.1354836474462019</v>
+        <v>-0.07411591155981326</v>
       </c>
       <c r="D73">
-        <v>0.01111884583032785</v>
+        <v>0.08621743681135914</v>
       </c>
       <c r="E73">
-        <v>0.1042026900438251</v>
+        <v>0.03920987826451711</v>
       </c>
       <c r="F73">
-        <v>0.3212818659582927</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2930396100930516</v>
+      </c>
+      <c r="G73">
+        <v>0.5183339340878076</v>
+      </c>
+      <c r="H73">
+        <v>-0.08289905666962784</v>
+      </c>
+      <c r="I73">
+        <v>0.09753062876978336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1508059110204379</v>
+        <v>-0.1486442743451222</v>
       </c>
       <c r="C74">
-        <v>-0.004654663267814245</v>
+        <v>0.036797208220543</v>
       </c>
       <c r="D74">
-        <v>-0.03828203988519818</v>
+        <v>0.01171963648620913</v>
       </c>
       <c r="E74">
-        <v>0.001401004321143099</v>
+        <v>-0.04660234853237411</v>
       </c>
       <c r="F74">
-        <v>-0.04936777464757729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06888617649268912</v>
+      </c>
+      <c r="G74">
+        <v>0.02938210916760321</v>
+      </c>
+      <c r="H74">
+        <v>-0.01897019813242046</v>
+      </c>
+      <c r="I74">
+        <v>-0.0842192483114366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2274810860334973</v>
+        <v>-0.2503802854406665</v>
       </c>
       <c r="C75">
-        <v>0.01315934691339943</v>
+        <v>0.03062920753795262</v>
       </c>
       <c r="D75">
-        <v>-0.09030318874667179</v>
+        <v>0.03068384617211541</v>
       </c>
       <c r="E75">
-        <v>0.008256604627143199</v>
+        <v>-0.1120753121055259</v>
       </c>
       <c r="F75">
-        <v>-0.144779864438801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1452143184472408</v>
+      </c>
+      <c r="G75">
+        <v>0.01915861015609778</v>
+      </c>
+      <c r="H75">
+        <v>0.01715521750412144</v>
+      </c>
+      <c r="I75">
+        <v>-0.03680267584227459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2525787713169991</v>
+        <v>-0.264359249735253</v>
       </c>
       <c r="C76">
-        <v>0.04717789640331267</v>
+        <v>0.02231666460218468</v>
       </c>
       <c r="D76">
-        <v>-0.09541112929866177</v>
+        <v>-0.007585818860615278</v>
       </c>
       <c r="E76">
-        <v>-0.06205927415004731</v>
+        <v>-0.1330239388451291</v>
       </c>
       <c r="F76">
-        <v>-0.1348008103981018</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1809566198007333</v>
+      </c>
+      <c r="G76">
+        <v>0.02725323988930837</v>
+      </c>
+      <c r="H76">
+        <v>-0.0693220069420437</v>
+      </c>
+      <c r="I76">
+        <v>-0.05528989540553759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1408306704462857</v>
+        <v>-0.1183613397346235</v>
       </c>
       <c r="C77">
-        <v>-0.06707456490014774</v>
+        <v>0.07444961626565583</v>
       </c>
       <c r="D77">
-        <v>0.009600554465135405</v>
+        <v>0.00978376083488309</v>
       </c>
       <c r="E77">
-        <v>0.0194322130486729</v>
+        <v>0.04725321571455623</v>
       </c>
       <c r="F77">
-        <v>0.1535652611670252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1609957242261769</v>
+      </c>
+      <c r="G77">
+        <v>-0.2120784637544574</v>
+      </c>
+      <c r="H77">
+        <v>0.001845776934818702</v>
+      </c>
+      <c r="I77">
+        <v>-0.2426741410421084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09120870109743653</v>
+        <v>-0.07063932828727373</v>
       </c>
       <c r="C78">
-        <v>-0.06926743359072739</v>
+        <v>0.06883178681070233</v>
       </c>
       <c r="D78">
-        <v>-0.01860026474302327</v>
+        <v>-0.001670818546980151</v>
       </c>
       <c r="E78">
-        <v>-0.006273335166402656</v>
+        <v>-0.01072016884552637</v>
       </c>
       <c r="F78">
-        <v>0.05002046646955997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07369315330810428</v>
+      </c>
+      <c r="G78">
+        <v>-0.01361515257009708</v>
+      </c>
+      <c r="H78">
+        <v>0.02261412980457599</v>
+      </c>
+      <c r="I78">
+        <v>-0.0278591345591826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1108094564875472</v>
+        <v>-0.1428187535901305</v>
       </c>
       <c r="C80">
-        <v>0.02962302392493199</v>
+        <v>-0.04025752632259549</v>
       </c>
       <c r="D80">
-        <v>0.3225889246383774</v>
+        <v>-0.975481993867467</v>
       </c>
       <c r="E80">
-        <v>-0.9147219009400879</v>
+        <v>0.05046453177036488</v>
       </c>
       <c r="F80">
-        <v>0.07830982644763146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04240645894484216</v>
+      </c>
+      <c r="G80">
+        <v>0.03215668535618927</v>
+      </c>
+      <c r="H80">
+        <v>0.02875794503990911</v>
+      </c>
+      <c r="I80">
+        <v>0.09654229900156218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1529270979138807</v>
+        <v>-0.1815264547764346</v>
       </c>
       <c r="C81">
-        <v>0.01915901733574735</v>
+        <v>0.01435546732103487</v>
       </c>
       <c r="D81">
-        <v>-0.05568299316672624</v>
+        <v>0.008332293484130711</v>
       </c>
       <c r="E81">
-        <v>-0.01599788187513419</v>
+        <v>-0.09070186515219351</v>
       </c>
       <c r="F81">
-        <v>-0.1856096535580971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1616501041895407</v>
+      </c>
+      <c r="G81">
+        <v>-0.01631734628327218</v>
+      </c>
+      <c r="H81">
+        <v>-0.02288705013512376</v>
+      </c>
+      <c r="I81">
+        <v>-0.004564654219012873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.08932821772697254</v>
+        <v>-0.06737840157422609</v>
       </c>
       <c r="C83">
-        <v>-0.08775420045094358</v>
+        <v>0.05597808097999488</v>
       </c>
       <c r="D83">
-        <v>0.007951071989401896</v>
+        <v>0.01089139778762274</v>
       </c>
       <c r="E83">
-        <v>0.02198310647165822</v>
+        <v>0.0217287135032743</v>
       </c>
       <c r="F83">
-        <v>0.01709634981085359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04824838783234154</v>
+      </c>
+      <c r="G83">
+        <v>-0.03654391798578931</v>
+      </c>
+      <c r="H83">
+        <v>0.06004174532098981</v>
+      </c>
+      <c r="I83">
+        <v>-0.04195898403226091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2397363781094333</v>
+        <v>-0.2522571335167396</v>
       </c>
       <c r="C85">
-        <v>-0.02350729814246729</v>
+        <v>0.05998271793384694</v>
       </c>
       <c r="D85">
-        <v>-0.07606289917337984</v>
+        <v>0.01170121414424035</v>
       </c>
       <c r="E85">
-        <v>-0.05529403581948524</v>
+        <v>-0.1052976554546581</v>
       </c>
       <c r="F85">
-        <v>-0.1586702817459875</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1838208870446356</v>
+      </c>
+      <c r="G85">
+        <v>-0.01542092665784515</v>
+      </c>
+      <c r="H85">
+        <v>-0.01768664768497245</v>
+      </c>
+      <c r="I85">
+        <v>-0.07175297130274411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04385469254122343</v>
+        <v>-0.0302515781539458</v>
       </c>
       <c r="C86">
-        <v>-0.05769160720674429</v>
+        <v>0.055242881995775</v>
       </c>
       <c r="D86">
-        <v>-0.02879335183649475</v>
+        <v>0.003643598391524683</v>
       </c>
       <c r="E86">
-        <v>0.007860353875681955</v>
+        <v>-0.01115289306140781</v>
       </c>
       <c r="F86">
-        <v>0.06865428010768147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07987274731428468</v>
+      </c>
+      <c r="G86">
+        <v>-0.05697949223811711</v>
+      </c>
+      <c r="H86">
+        <v>0.0126725316045086</v>
+      </c>
+      <c r="I86">
+        <v>-0.05955241818095933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01820650989045415</v>
+        <v>-0.02615822318914148</v>
       </c>
       <c r="C87">
-        <v>0.03707217377117061</v>
+        <v>-0.006403999764828688</v>
       </c>
       <c r="D87">
-        <v>0.005421486930343417</v>
+        <v>-0.003824241230002062</v>
       </c>
       <c r="E87">
-        <v>0.005748473571665182</v>
+        <v>0.003494157558787845</v>
       </c>
       <c r="F87">
-        <v>0.09499496210803597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1037644462291713</v>
+      </c>
+      <c r="G87">
+        <v>-0.02986265198423884</v>
+      </c>
+      <c r="H87">
+        <v>-0.01236982068847161</v>
+      </c>
+      <c r="I87">
+        <v>-0.0334965623692025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03072561394563929</v>
+        <v>-0.03525325988634612</v>
       </c>
       <c r="C88">
-        <v>-0.01506458156859518</v>
+        <v>0.006889620046215674</v>
       </c>
       <c r="D88">
-        <v>-0.01371109382938346</v>
+        <v>-0.005166851126849308</v>
       </c>
       <c r="E88">
-        <v>-0.02514243067563546</v>
+        <v>-0.01056902078046561</v>
       </c>
       <c r="F88">
-        <v>-0.02366721243877</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01592902405751723</v>
+      </c>
+      <c r="G88">
+        <v>-0.02417152836263404</v>
+      </c>
+      <c r="H88">
+        <v>0.04666481108826095</v>
+      </c>
+      <c r="I88">
+        <v>0.0009307805731853326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.0611298078635967</v>
+        <v>-0.09340307976248272</v>
       </c>
       <c r="C89">
-        <v>0.3513417585960636</v>
+        <v>-0.3856429054584546</v>
       </c>
       <c r="D89">
-        <v>0.1193814110398505</v>
+        <v>0.04624280964688098</v>
       </c>
       <c r="E89">
-        <v>0.08955266003433646</v>
+        <v>0.05087825278139857</v>
       </c>
       <c r="F89">
-        <v>0.03312545437303371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.04689100391375622</v>
+      </c>
+      <c r="G89">
+        <v>-0.08401452539100164</v>
+      </c>
+      <c r="H89">
+        <v>0.04282840380974911</v>
+      </c>
+      <c r="I89">
+        <v>-0.07173072753177993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.04781894964833756</v>
+        <v>-0.05898178089442561</v>
       </c>
       <c r="C90">
-        <v>0.3108877520446425</v>
+        <v>-0.3375966103278298</v>
       </c>
       <c r="D90">
-        <v>0.1086887222693474</v>
+        <v>0.02127398239506199</v>
       </c>
       <c r="E90">
-        <v>0.02848873532272696</v>
+        <v>0.04896499142263844</v>
       </c>
       <c r="F90">
-        <v>0.0673565992732717</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03923749968499619</v>
+      </c>
+      <c r="G90">
+        <v>-0.0531480725152884</v>
+      </c>
+      <c r="H90">
+        <v>0.01939995742732613</v>
+      </c>
+      <c r="I90">
+        <v>-0.04818327745892854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2703954097563149</v>
+        <v>-0.28624889339148</v>
       </c>
       <c r="C91">
-        <v>-0.02255903047606787</v>
+        <v>0.06360391669554155</v>
       </c>
       <c r="D91">
-        <v>-0.07266758212021723</v>
+        <v>0.01889610119248874</v>
       </c>
       <c r="E91">
-        <v>-0.03900351874425416</v>
+        <v>-0.0994931885487898</v>
       </c>
       <c r="F91">
-        <v>-0.2754735992974457</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2708296241730067</v>
+      </c>
+      <c r="G91">
+        <v>0.0003148387635538009</v>
+      </c>
+      <c r="H91">
+        <v>-0.05013536002487152</v>
+      </c>
+      <c r="I91">
+        <v>-0.06558046768531892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.07982956481649453</v>
+        <v>-0.1335046266842332</v>
       </c>
       <c r="C92">
-        <v>0.3217995255811557</v>
+        <v>-0.3765359987989539</v>
       </c>
       <c r="D92">
-        <v>0.1829482767780756</v>
+        <v>0.008943644755165984</v>
       </c>
       <c r="E92">
-        <v>0.02287663262429374</v>
+        <v>0.08164461214504162</v>
       </c>
       <c r="F92">
-        <v>-0.1040304588818222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1201161081478846</v>
+      </c>
+      <c r="G92">
+        <v>-0.328058173508962</v>
+      </c>
+      <c r="H92">
+        <v>0.01157077371833955</v>
+      </c>
+      <c r="I92">
+        <v>0.05687118864694726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.03808974690947883</v>
+        <v>-0.07515613535355621</v>
       </c>
       <c r="C93">
-        <v>0.3674743758755798</v>
+        <v>-0.4033488344601462</v>
       </c>
       <c r="D93">
-        <v>0.1333389812058949</v>
+        <v>0.03525934369771281</v>
       </c>
       <c r="E93">
-        <v>0.04220503200786417</v>
+        <v>0.08078845003470761</v>
       </c>
       <c r="F93">
-        <v>-0.005408866139120257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0001982055406023333</v>
+      </c>
+      <c r="G93">
+        <v>-0.02723266162994785</v>
+      </c>
+      <c r="H93">
+        <v>0.05451328443777637</v>
+      </c>
+      <c r="I93">
+        <v>0.01077536911479595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2787917070083745</v>
+        <v>-0.3120346853697054</v>
       </c>
       <c r="C94">
-        <v>0.1058461263125677</v>
+        <v>-0.03058280237959383</v>
       </c>
       <c r="D94">
-        <v>-0.02920203544025615</v>
+        <v>0.04826977764306058</v>
       </c>
       <c r="E94">
-        <v>-0.004174000215837502</v>
+        <v>-0.1123681161737626</v>
       </c>
       <c r="F94">
-        <v>-0.3339352539761652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.309696147842792</v>
+      </c>
+      <c r="G94">
+        <v>-0.09037452735525396</v>
+      </c>
+      <c r="H94">
+        <v>-0.206000895745039</v>
+      </c>
+      <c r="I94">
+        <v>-0.01503485327841852</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1643413772051217</v>
+        <v>-0.1305600550878407</v>
       </c>
       <c r="C95">
-        <v>-0.06942863246273186</v>
+        <v>0.06157642154272645</v>
       </c>
       <c r="D95">
-        <v>-0.01145433375498405</v>
+        <v>0.08157597698071835</v>
       </c>
       <c r="E95">
-        <v>0.07779403742123209</v>
+        <v>-0.02887900401119341</v>
       </c>
       <c r="F95">
-        <v>-0.3949198132533649</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1052650262890641</v>
+      </c>
+      <c r="G95">
+        <v>-0.002874059830096091</v>
+      </c>
+      <c r="H95">
+        <v>0.876677308451792</v>
+      </c>
+      <c r="I95">
+        <v>0.3590894934938272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2099698467656667</v>
+        <v>-0.2102831256709385</v>
       </c>
       <c r="C98">
-        <v>0.08334321007046748</v>
+        <v>-0.06149647225140339</v>
       </c>
       <c r="D98">
-        <v>0.01225572248467208</v>
+        <v>0.0621024792132624</v>
       </c>
       <c r="E98">
-        <v>0.08690280473464258</v>
+        <v>0.02756595235855814</v>
       </c>
       <c r="F98">
-        <v>0.0897034189096594</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1676747661493345</v>
+      </c>
+      <c r="G98">
+        <v>0.3515921566368473</v>
+      </c>
+      <c r="H98">
+        <v>-0.02460075105387271</v>
+      </c>
+      <c r="I98">
+        <v>0.1066301297697149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03124683831883714</v>
+        <v>-0.01826051349025092</v>
       </c>
       <c r="C101">
-        <v>-0.02554796012849351</v>
+        <v>0.03408520813271711</v>
       </c>
       <c r="D101">
-        <v>-0.03292648773496433</v>
+        <v>-0.004362068960338917</v>
       </c>
       <c r="E101">
-        <v>-0.01726593540795955</v>
+        <v>-0.03557212182174222</v>
       </c>
       <c r="F101">
-        <v>0.02136211154425663</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06462089022128567</v>
+      </c>
+      <c r="G101">
+        <v>-0.1133634472052511</v>
+      </c>
+      <c r="H101">
+        <v>-0.01905153838253185</v>
+      </c>
+      <c r="I101">
+        <v>0.1186363089677338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.0971799458810618</v>
+        <v>-0.1172025064412709</v>
       </c>
       <c r="C102">
-        <v>-0.01957947547062161</v>
+        <v>0.02785062903988263</v>
       </c>
       <c r="D102">
-        <v>-0.04883297304340459</v>
+        <v>-0.002469570212690364</v>
       </c>
       <c r="E102">
-        <v>-0.04004222628138641</v>
+        <v>-0.05279821202882225</v>
       </c>
       <c r="F102">
-        <v>-0.1040739068214871</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1163666128025671</v>
+      </c>
+      <c r="G102">
+        <v>-0.009497158482033379</v>
+      </c>
+      <c r="H102">
+        <v>0.001649754298116211</v>
+      </c>
+      <c r="I102">
+        <v>-0.04678018671334064</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02058129360605647</v>
+        <v>-0.02883407467222882</v>
       </c>
       <c r="C103">
-        <v>-0.00971130367245117</v>
+        <v>0.01129000028423915</v>
       </c>
       <c r="D103">
-        <v>-0.01481390684266697</v>
+        <v>-0.0086505026222956</v>
       </c>
       <c r="E103">
-        <v>-0.0071057836691263</v>
+        <v>-0.01852200591416212</v>
       </c>
       <c r="F103">
-        <v>-0.03259487689939502</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02569665184202462</v>
+      </c>
+      <c r="G103">
+        <v>-0.01702626557981818</v>
+      </c>
+      <c r="H103">
+        <v>0.007773343647337581</v>
+      </c>
+      <c r="I103">
+        <v>-0.01467551107470205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
